--- a/笔记.xlsx
+++ b/笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>width:100是把width等于父容器的width，padding、border、margin的宽度仍不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,11 +56,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行内元素无法设置width和height，它的大小只能根据所包含的内容来定，但可以设置padding、border、margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>display属性，inline把块级元素转为行内元素，无法定义大小；inline-block把块级元素的换行符去掉了，可以定义大小；block是前后有换行符的块级元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float元素以块显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float元素若不定义大小，会自动收缩到仅能包住内容；而当block元素没有定义宽度时，会自动100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inline元素无法设置width和height，它的大小只能根据所包含的内容来定，但可以设置padding、border、margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float元素的clear:both，若左右两边存在float元素，则换行显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inline-block处于DOM中，不会改变文档流，不能设为右对齐。Float可以浮动向右边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float元素会根据其所包含的元素自动撑开，flex也会自动撑开，block不会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除position为static（不定位）外的所有都可以成为定位包含框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,75 +437,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="103.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/笔记.xlsx
+++ b/笔记.xlsx
@@ -4,29 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5220"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>width:100是把width等于父容器的width，padding、border、margin的宽度仍不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-sizing:content-box盒子的width和height是指最里面内容的，不包含padding、border、margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-sizing:border-box盒子的width和height是指content+padding+border，不包含margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>overflow:auto，当内容溢出边框时，自动添加滚动条</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浮动可以解决margin合并的问题float:left，而padding不会合并，所以最好用div的padding来控制内容的间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>margin合并只会发生在block元素，且只有在垂直相邻边界才会发生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,31 +44,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float元素以块显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float元素若不定义大小，会自动收缩到仅能包住内容；而当block元素没有定义宽度时，会自动100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inline元素无法设置width和height，它的大小只能根据所包含的内容来定，但可以设置padding、border、margin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float元素的clear:both，若左右两边存在float元素，则换行显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inline-block处于DOM中，不会改变文档流，不能设为右对齐。Float可以浮动向右边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float元素会根据其所包含的元素自动撑开，flex也会自动撑开，block不会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>除position为static（不定位）外的所有都可以成为定位包含框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex容器有两个轴，main axis和cross axis，cross axis方向与main axis方向垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>align-content定义flex-wrap不为nowrap的各行分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order:&lt;integer&gt;可用于定义flex item的次序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex: flex-grow|flex-shrink|flex-basis,第2、3个参数可选，用于简化flex-grow的写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒模型：content | padding | border | margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex和inline-flex容器里的子元素将变成flex文档流，被称为flex item，其float、clear、vertical-align无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width:100是把width等于父容器的width（区分box-sizing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-sizing:content-box的width是content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-sizing:border-box的width是border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex-flow: 方向 | wrap  是flex-directon和flex-wrap的复合属性，分别定义主轴方向和显示行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>justify-content规定flex item 沿着main axis的对齐方式，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>align-items规定沿着cross axis的对齐方式，align-items还会改变flex-item在侧轴的宽度</t>
+  </si>
+  <si>
+    <t>align-self用于覆写align-items</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,10 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,165 +455,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="91.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    </row>
+    <row r="9" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>